--- a/Datasets/Tested for F1 Calculation/Comparison TextBlob and Stanford.xlsx
+++ b/Datasets/Tested for F1 Calculation/Comparison TextBlob and Stanford.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QuangDaoVuNgoc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QuangDaoVuNgoc\github\bachelorthesis\Datasets\Tested for F1 Calculation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87118B24-3498-4B28-926D-0A6CCF406D45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0543FF-3A80-4B7F-9E73-EEE53E5FAD2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="20910" windowHeight="11835" xr2:uid="{F1FC0D0D-D105-4EF9-97E5-E8E712141B04}"/>
+    <workbookView xWindow="13260" yWindow="2895" windowWidth="20910" windowHeight="11835" xr2:uid="{F1FC0D0D-D105-4EF9-97E5-E8E712141B04}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="15">
   <si>
     <t>Textblob</t>
   </si>
@@ -101,7 +101,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -111,6 +111,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -127,17 +133,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -147,7 +147,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,43 +477,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15467214-EBCF-4E0C-8E68-A8915CBA8E88}">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -513,10 +528,10 @@
       <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="8"/>
       <c r="H3" t="s">
         <v>7</v>
       </c>
@@ -526,10 +541,10 @@
       <c r="J3" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="4"/>
+      <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
@@ -542,17 +557,23 @@
       <c r="D4" s="1">
         <v>0.11899999999999999</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="7">
         <v>0.20799999999999999</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="7"/>
       <c r="H4" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+      <c r="I4" s="1">
+        <v>0.90790000000000004</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.4173</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0.57179999999999997</v>
+      </c>
+      <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
@@ -565,42 +586,55 @@
       <c r="D5" s="1">
         <v>2.0199999999999999E-2</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="7">
         <v>3.95E-2</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="7"/>
       <c r="H5" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
+      <c r="I5" s="1">
+        <v>0.64559999999999995</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.89290000000000003</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0.74939999999999996</v>
+      </c>
+      <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1">
-        <v>0</v>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="4"/>
+      <c r="E6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="8"/>
       <c r="H6" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="I6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="8"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B8" t="s">
@@ -612,10 +646,10 @@
       <c r="D8" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="8"/>
       <c r="H8" t="s">
         <v>7</v>
       </c>
@@ -625,13 +659,13 @@
       <c r="J8" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L8" s="4"/>
+      <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+      <c r="A9" s="6"/>
       <c r="B9" t="s">
         <v>10</v>
       </c>
@@ -639,22 +673,28 @@
         <v>0.93330000000000002</v>
       </c>
       <c r="D9" s="1">
-        <v>2.7799999999999998E-2</v>
-      </c>
-      <c r="E9" s="5">
-        <v>5.3900000000000003E-2</v>
-      </c>
-      <c r="F9" s="5"/>
+        <v>2.8400000000000002E-2</v>
+      </c>
+      <c r="E9" s="7">
+        <v>5.5100000000000003E-2</v>
+      </c>
+      <c r="F9" s="7"/>
       <c r="H9" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
+      <c r="I9" s="1">
+        <v>0.4592</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.17369999999999999</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0.25209999999999999</v>
+      </c>
+      <c r="L9" s="7"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+      <c r="A10" s="6"/>
       <c r="B10" t="s">
         <v>12</v>
       </c>
@@ -664,42 +704,55 @@
       <c r="D10" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="7">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="7"/>
       <c r="H10" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
+      <c r="I10" s="3">
+        <v>0.4924</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.75629999999999997</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0.59650000000000003</v>
+      </c>
+      <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
+      <c r="A11" s="6"/>
       <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="1">
-        <v>0</v>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="4"/>
+      <c r="E11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="8"/>
       <c r="H11" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
+      <c r="I11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="8"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B13" t="s">
@@ -711,10 +764,10 @@
       <c r="D13" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="4"/>
+      <c r="F13" s="8"/>
       <c r="H13" t="s">
         <v>7</v>
       </c>
@@ -724,13 +777,13 @@
       <c r="J13" t="s">
         <v>8</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L13" s="4"/>
+      <c r="L13" s="8"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
+      <c r="A14" s="4"/>
       <c r="B14" t="s">
         <v>10</v>
       </c>
@@ -740,26 +793,26 @@
       <c r="D14" s="1">
         <v>0.434</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="7">
         <v>0.58020000000000005</v>
       </c>
-      <c r="F14" s="4"/>
+      <c r="F14" s="8"/>
       <c r="H14" t="s">
         <v>10</v>
       </c>
       <c r="I14" s="1">
-        <v>0.72940000000000005</v>
+        <v>0.89380000000000004</v>
       </c>
       <c r="J14" s="1">
-        <v>0.60740000000000005</v>
-      </c>
-      <c r="K14" s="5">
-        <v>0.66279999999999994</v>
-      </c>
-      <c r="L14" s="4"/>
+        <v>0.68179999999999996</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0.77349999999999997</v>
+      </c>
+      <c r="L14" s="8"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
+      <c r="A15" s="4"/>
       <c r="B15" t="s">
         <v>12</v>
       </c>
@@ -769,154 +822,173 @@
       <c r="D15" s="1">
         <v>0.16600000000000001</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="7">
         <v>0.28139999999999998</v>
       </c>
-      <c r="F15" s="4"/>
+      <c r="F15" s="8"/>
       <c r="H15" t="s">
         <v>12</v>
       </c>
       <c r="I15" s="1">
-        <v>0.70589999999999997</v>
+        <v>0.8105</v>
       </c>
       <c r="J15" s="1">
-        <v>0.63370000000000004</v>
-      </c>
-      <c r="K15" s="5">
-        <v>0.66790000000000005</v>
-      </c>
-      <c r="L15" s="4"/>
+        <v>0.753</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0.78069999999999995</v>
+      </c>
+      <c r="L15" s="8"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
+      <c r="A16" s="4"/>
       <c r="B16" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="1">
-        <v>0</v>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="4"/>
+      <c r="E16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="8"/>
       <c r="H16" t="s">
         <v>11</v>
       </c>
-      <c r="I16" s="1">
-        <v>0</v>
+      <c r="I16" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J16" t="s">
         <v>13</v>
       </c>
-      <c r="K16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L16" s="4"/>
+      <c r="K16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" s="8"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="H18" t="s">
+      <c r="F18" s="11"/>
+      <c r="H18" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L18" s="4"/>
+      <c r="L18" s="11"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" t="s">
+      <c r="A19" s="4"/>
+      <c r="B19" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="1">
-        <v>0.73080000000000001</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0.10730000000000001</v>
-      </c>
-      <c r="E19" s="5">
-        <v>0.18720000000000001</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="H19" t="s">
+      <c r="C19" s="12">
+        <v>0.72</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0.10780000000000001</v>
+      </c>
+      <c r="E19" s="13">
+        <v>0.1875</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="H19" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="4"/>
+      <c r="I19" s="12">
+        <v>0.42549999999999999</v>
+      </c>
+      <c r="J19" s="12">
+        <v>0.1212</v>
+      </c>
+      <c r="K19" s="13">
+        <v>0.18870000000000001</v>
+      </c>
+      <c r="L19" s="11"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" t="s">
+      <c r="A20" s="4"/>
+      <c r="B20" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="3">
-        <v>0.96</v>
-      </c>
-      <c r="D20" s="1">
-        <v>2.92E-2</v>
-      </c>
-      <c r="E20" s="5">
-        <v>5.6599999999999998E-2</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="H20" t="s">
+      <c r="C20" s="14">
+        <v>0.95650000000000002</v>
+      </c>
+      <c r="D20" s="12">
+        <v>2.86E-2</v>
+      </c>
+      <c r="E20" s="13">
+        <v>5.5599999999999997E-2</v>
+      </c>
+      <c r="F20" s="11"/>
+      <c r="H20" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="4"/>
+      <c r="I20" s="14">
+        <v>0.83640000000000003</v>
+      </c>
+      <c r="J20" s="12">
+        <v>0.92869999999999997</v>
+      </c>
+      <c r="K20" s="13">
+        <v>0.88009999999999999</v>
+      </c>
+      <c r="L20" s="11"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" t="s">
+      <c r="A21" s="4"/>
+      <c r="B21" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="1">
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="H21" t="s">
+      <c r="C21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="11"/>
+      <c r="H21" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I21" s="1"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
+      <c r="I21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L21" s="11"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B23" t="s">
@@ -928,10 +1000,10 @@
       <c r="D23" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="4"/>
+      <c r="F23" s="8"/>
       <c r="H23" t="s">
         <v>7</v>
       </c>
@@ -941,13 +1013,13 @@
       <c r="J23" t="s">
         <v>8</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="K23" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L23" s="4"/>
+      <c r="L23" s="8"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
+      <c r="A24" s="4"/>
       <c r="B24" t="s">
         <v>10</v>
       </c>
@@ -957,20 +1029,26 @@
       <c r="D24" s="1">
         <v>9.9599999999999994E-2</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="7">
         <v>0.18010000000000001</v>
       </c>
-      <c r="F24" s="4"/>
+      <c r="F24" s="8"/>
       <c r="H24" t="s">
         <v>10</v>
       </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="4"/>
+      <c r="I24" s="1">
+        <v>0.69850000000000001</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0.28839999999999999</v>
+      </c>
+      <c r="K24" s="7">
+        <v>0.40820000000000001</v>
+      </c>
+      <c r="L24" s="8"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
+      <c r="A25" s="4"/>
       <c r="B25" t="s">
         <v>12</v>
       </c>
@@ -980,42 +1058,149 @@
       <c r="D25" s="1">
         <v>1.9300000000000001E-2</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="7">
         <v>3.7900000000000003E-2</v>
       </c>
-      <c r="F25" s="4"/>
+      <c r="F25" s="8"/>
       <c r="H25" t="s">
         <v>12</v>
       </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="4"/>
+      <c r="I25" s="3">
+        <v>0.58109999999999995</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.84360000000000002</v>
+      </c>
+      <c r="K25" s="7">
+        <v>0.68820000000000003</v>
+      </c>
+      <c r="L25" s="8"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
+      <c r="A26" s="4"/>
       <c r="B26" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="1">
-        <v>0</v>
+      <c r="C26" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D26" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="4"/>
+      <c r="E26" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="8"/>
       <c r="H26" t="s">
         <v>11</v>
       </c>
-      <c r="I26" s="1"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
+      <c r="I26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L26" s="8"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>504</v>
+      </c>
+      <c r="C29">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>498</v>
+      </c>
+      <c r="C30">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>500</v>
+      </c>
+      <c r="C31">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="10">
+        <v>167</v>
+      </c>
+      <c r="C32" s="10">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>483</v>
+      </c>
+      <c r="C33">
+        <v>517</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="I1:M2"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="B1:F2"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A13:A16"/>
@@ -1032,37 +1217,6 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="I1:M2"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
